--- a/test/test_employees2.xlsx
+++ b/test/test_employees2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS\ARCHIVOS JOB\lib_gr_sqlmodel_xlsx\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS\ARCHIVOS JOB\my_libs\alchemymodel_xlsx\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
